--- a/8 класс/Задача о поиске клетки.xlsx
+++ b/8 класс/Задача о поиске клетки.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="8355"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18150" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>в</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -51,6 +59,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -665,7 +680,7 @@
   <dimension ref="B1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,6 +762,9 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -768,6 +786,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
       <c r="X5" s="2">
         <v>768.57</v>
       </c>
@@ -792,6 +813,9 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
       <c r="X6" s="2">
         <v>3090.5</v>
       </c>
@@ -816,6 +840,9 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
       <c r="X7" s="2">
         <v>52.34</v>
       </c>
@@ -840,6 +867,9 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
       <c r="X8" s="2">
         <f>SUM(X5:X7)</f>
         <v>3911.4100000000003</v>
@@ -865,6 +895,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -886,6 +919,11 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -907,6 +945,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
@@ -928,6 +969,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
@@ -949,6 +993,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
@@ -970,6 +1017,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
@@ -991,6 +1041,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:24" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
@@ -1012,8 +1065,11 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1033,8 +1089,11 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1054,8 +1113,11 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1075,13 +1137,16 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:18" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:22" s="2" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
